--- a/team_specific_matrix/Georgetown_A.xlsx
+++ b/team_specific_matrix/Georgetown_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1848739495798319</v>
+        <v>0.1912751677852349</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5536912751677853</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004201680672268907</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1302521008403361</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1092436974789916</v>
+        <v>0.1140939597315436</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01398601398601399</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="C3">
-        <v>0.04895104895104895</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006993006993006993</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7132867132867133</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2167832167832168</v>
+        <v>0.2151162790697674</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8571428571428571</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1428571428571428</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006666666666666667</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E6">
-        <v>0.01333333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="F6">
-        <v>0.05333333333333334</v>
+        <v>0.046875</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.24</v>
+        <v>0.2447916666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="R6">
-        <v>0.07333333333333333</v>
+        <v>0.09375</v>
       </c>
       <c r="S6">
-        <v>0.3666666666666666</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1409395973154362</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006711409395973154</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E7">
-        <v>0.006711409395973154</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F7">
-        <v>0.05369127516778523</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1946308724832215</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02013422818791946</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1543624161073825</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="R7">
-        <v>0.1208053691275168</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="S7">
-        <v>0.302013422818792</v>
+        <v>0.3146067415730337</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09743589743589744</v>
+        <v>0.1069958847736626</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01025641025641026</v>
+        <v>0.01440329218106996</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05384615384615385</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1487179487179487</v>
+        <v>0.139917695473251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01538461538461539</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1538461538461539</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S8">
-        <v>0.4205128205128205</v>
+        <v>0.4176954732510288</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1333333333333333</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02424242424242424</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04242424242424243</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1212121212121212</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01212121212121212</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1575757575757576</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="S9">
-        <v>0.4424242424242424</v>
+        <v>0.413265306122449</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1154285714285714</v>
+        <v>0.1117068811438785</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01371428571428571</v>
+        <v>0.0160857908847185</v>
       </c>
       <c r="E10">
-        <v>0.003428571428571428</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="F10">
-        <v>0.07428571428571429</v>
+        <v>0.07327971403038427</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.128</v>
+        <v>0.13047363717605</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02057142857142857</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1851428571428571</v>
+        <v>0.1885612153708668</v>
       </c>
       <c r="R10">
-        <v>0.08685714285714285</v>
+        <v>0.09204647006255585</v>
       </c>
       <c r="S10">
-        <v>0.3725714285714286</v>
+        <v>0.3663985701519213</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1516587677725119</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09004739336492891</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.2227488151658768</v>
+        <v>0.2259259259259259</v>
       </c>
       <c r="L11">
-        <v>0.5165876777251185</v>
+        <v>0.5074074074074074</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01895734597156398</v>
+        <v>0.01481481481481482</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7459016393442623</v>
+        <v>0.7417218543046358</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1557377049180328</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.04918032786885246</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04098360655737705</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1538461538461539</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03636363636363636</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1575757575757576</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="J15">
-        <v>0.3515151515151515</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="K15">
-        <v>0.05454545454545454</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01818181818181818</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0303030303030303</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2787878787878788</v>
+        <v>0.2731707317073171</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006944444444444444</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2430555555555556</v>
+        <v>0.2430939226519337</v>
       </c>
       <c r="I16">
-        <v>0.1319444444444444</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="J16">
-        <v>0.2777777777777778</v>
+        <v>0.3093922651933702</v>
       </c>
       <c r="K16">
-        <v>0.1319444444444444</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04861111111111111</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1319444444444444</v>
+        <v>0.143646408839779</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009966777408637873</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1960132890365449</v>
+        <v>0.2131578947368421</v>
       </c>
       <c r="I17">
-        <v>0.1029900332225914</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="J17">
-        <v>0.3853820598006645</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="K17">
-        <v>0.1162790697674419</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.026578073089701</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04651162790697674</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1162790697674419</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01886792452830189</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.220125786163522</v>
+        <v>0.2227722772277228</v>
       </c>
       <c r="I18">
-        <v>0.09433962264150944</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="K18">
-        <v>0.1006289308176101</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01257861635220126</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1446540880503145</v>
+        <v>0.1534653465346535</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01015228426395939</v>
+        <v>0.01072607260726073</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2426395939086294</v>
+        <v>0.2409240924092409</v>
       </c>
       <c r="I19">
-        <v>0.08934010152284264</v>
+        <v>0.08663366336633663</v>
       </c>
       <c r="J19">
-        <v>0.3238578680203046</v>
+        <v>0.334983498349835</v>
       </c>
       <c r="K19">
-        <v>0.07918781725888324</v>
+        <v>0.08498349834983498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0233502538071066</v>
+        <v>0.02062706270627063</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07614213197969544</v>
+        <v>0.07508250825082509</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1553299492385787</v>
+        <v>0.146039603960396</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgetown_A.xlsx
+++ b/team_specific_matrix/Georgetown_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1912751677852349</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C2">
-        <v>0.5536912751677853</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006711409395973154</v>
+        <v>0.006230529595015576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1342281879194631</v>
+        <v>0.1370716510903427</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1140939597315436</v>
+        <v>0.1090342679127726</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01744186046511628</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="C3">
-        <v>0.04069767441860465</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01744186046511628</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7093023255813954</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2151162790697674</v>
+        <v>0.2116402116402116</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8709677419354839</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1290322580645161</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03645833333333334</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005208333333333333</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="E6">
-        <v>0.01041666666666667</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="F6">
-        <v>0.046875</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2447916666666667</v>
+        <v>0.2392344497607655</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04166666666666666</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1614583333333333</v>
+        <v>0.1531100478468899</v>
       </c>
       <c r="R6">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S6">
-        <v>0.359375</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1348314606741573</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005617977528089887</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="E7">
-        <v>0.005617977528089887</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F7">
-        <v>0.07303370786516854</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1797752808988764</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01685393258426966</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1573033707865168</v>
+        <v>0.1597938144329897</v>
       </c>
       <c r="R7">
-        <v>0.1123595505617977</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="S7">
-        <v>0.3146067415730337</v>
+        <v>0.3298969072164948</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1069958847736626</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01440329218106996</v>
+        <v>0.01359223300970874</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05761316872427984</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.139917695473251</v>
+        <v>0.1378640776699029</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01646090534979424</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.154320987654321</v>
+        <v>0.1495145631067961</v>
       </c>
       <c r="R8">
-        <v>0.09259259259259259</v>
+        <v>0.0912621359223301</v>
       </c>
       <c r="S8">
-        <v>0.4176954732510288</v>
+        <v>0.4252427184466019</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1326530612244898</v>
+        <v>0.1244239631336406</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03061224489795918</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05612244897959184</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1326530612244898</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01020408163265306</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1581632653061225</v>
+        <v>0.1566820276497696</v>
       </c>
       <c r="R9">
-        <v>0.0663265306122449</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="S9">
-        <v>0.413265306122449</v>
+        <v>0.4147465437788018</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1117068811438785</v>
+        <v>0.1142618849040867</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0160857908847185</v>
+        <v>0.0158465387823186</v>
       </c>
       <c r="E10">
-        <v>0.002680965147453083</v>
+        <v>0.00250208507089241</v>
       </c>
       <c r="F10">
-        <v>0.07327971403038427</v>
+        <v>0.07172643869891576</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.13047363717605</v>
+        <v>0.1359466221851543</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01876675603217158</v>
+        <v>0.01751459549624687</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1885612153708668</v>
+        <v>0.1843202668890742</v>
       </c>
       <c r="R10">
-        <v>0.09204647006255585</v>
+        <v>0.09257714762301918</v>
       </c>
       <c r="S10">
-        <v>0.3663985701519213</v>
+        <v>0.3653044203502919</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1407407407407407</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1054421768707483</v>
       </c>
       <c r="K11">
-        <v>0.2259259259259259</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="L11">
-        <v>0.5074074074074074</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01481481481481482</v>
+        <v>0.01360544217687075</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7417218543046358</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1589403973509934</v>
+        <v>0.1614906832298137</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.03973509933774835</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05298013245033113</v>
+        <v>0.04968944099378882</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1590909090909091</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03414634146341464</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1414634146341463</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="I15">
-        <v>0.08292682926829269</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="J15">
-        <v>0.3658536585365854</v>
+        <v>0.3532110091743119</v>
       </c>
       <c r="K15">
-        <v>0.04878048780487805</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01463414634146342</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03902439024390244</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2731707317073171</v>
+        <v>0.2752293577981652</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005524861878453038</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2430939226519337</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I16">
-        <v>0.1104972375690608</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="J16">
-        <v>0.3093922651933702</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K16">
-        <v>0.1215469613259668</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02762430939226519</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03867403314917127</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.143646408839779</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01052631578947368</v>
+        <v>0.0100250626566416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2131578947368421</v>
+        <v>0.2155388471177945</v>
       </c>
       <c r="I17">
-        <v>0.09210526315789473</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J17">
-        <v>0.3842105263157894</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K17">
-        <v>0.1184210526315789</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02368421052631579</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05012531328320802</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1052631578947368</v>
+        <v>0.1027568922305764</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01485148514851485</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2227722772277228</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="I18">
-        <v>0.0891089108910891</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="J18">
-        <v>0.3366336633663367</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="K18">
-        <v>0.103960396039604</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06930693069306931</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1534653465346535</v>
+        <v>0.1435185185185185</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01072607260726073</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2409240924092409</v>
+        <v>0.2376543209876543</v>
       </c>
       <c r="I19">
-        <v>0.08663366336633663</v>
+        <v>0.08950617283950617</v>
       </c>
       <c r="J19">
-        <v>0.334983498349835</v>
+        <v>0.3371913580246914</v>
       </c>
       <c r="K19">
-        <v>0.08498349834983498</v>
+        <v>0.08719135802469136</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02062706270627063</v>
+        <v>0.01929012345679012</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07508250825082509</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.146039603960396</v>
+        <v>0.1419753086419753</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgetown_A.xlsx
+++ b/team_specific_matrix/Georgetown_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1869158878504673</v>
+        <v>0.1878612716763006</v>
       </c>
       <c r="C2">
-        <v>0.5607476635514018</v>
+        <v>0.5578034682080925</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006230529595015576</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1370716510903427</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1090342679127726</v>
+        <v>0.1040462427745665</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02116402116402116</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C3">
-        <v>0.04761904761904762</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01587301587301587</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7037037037037037</v>
+        <v>0.7079207920792079</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2116402116402116</v>
+        <v>0.2128712871287129</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8857142857142857</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1142857142857143</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0430622009569378</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004784688995215311</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="E6">
-        <v>0.009569377990430622</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="F6">
-        <v>0.05263157894736842</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2392344497607655</v>
+        <v>0.2477477477477477</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03827751196172249</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1531100478468899</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="R6">
-        <v>0.09090909090909091</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="S6">
-        <v>0.3684210526315789</v>
+        <v>0.3603603603603603</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1288659793814433</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01030927835051546</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E7">
-        <v>0.005154639175257732</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F7">
-        <v>0.07731958762886598</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1649484536082474</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0154639175257732</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1597938144329897</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R7">
-        <v>0.1082474226804124</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="S7">
-        <v>0.3298969072164948</v>
+        <v>0.3411214953271028</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1067961165048544</v>
+        <v>0.1061151079136691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01359223300970874</v>
+        <v>0.01618705035971223</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001798561151079137</v>
       </c>
       <c r="F8">
-        <v>0.05825242718446602</v>
+        <v>0.05935251798561151</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1378640776699029</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01747572815533981</v>
+        <v>0.0197841726618705</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1495145631067961</v>
+        <v>0.1528776978417266</v>
       </c>
       <c r="R8">
-        <v>0.0912621359223301</v>
+        <v>0.08453237410071943</v>
       </c>
       <c r="S8">
-        <v>0.4252427184466019</v>
+        <v>0.4226618705035971</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1244239631336406</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03686635944700461</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06451612903225806</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.119815668202765</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01382488479262673</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1566820276497696</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R9">
-        <v>0.06912442396313365</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="S9">
-        <v>0.4147465437788018</v>
+        <v>0.412280701754386</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1142618849040867</v>
+        <v>0.1151750972762646</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0158465387823186</v>
+        <v>0.01478599221789883</v>
       </c>
       <c r="E10">
-        <v>0.00250208507089241</v>
+        <v>0.002334630350194552</v>
       </c>
       <c r="F10">
-        <v>0.07172643869891576</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1359466221851543</v>
+        <v>0.1346303501945525</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01751459549624687</v>
+        <v>0.01712062256809339</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1843202668890742</v>
+        <v>0.1828793774319066</v>
       </c>
       <c r="R10">
-        <v>0.09257714762301918</v>
+        <v>0.09571984435797666</v>
       </c>
       <c r="S10">
-        <v>0.3653044203502919</v>
+        <v>0.3634241245136187</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1496598639455782</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1054421768707483</v>
+        <v>0.1012269938650307</v>
       </c>
       <c r="K11">
-        <v>0.2312925170068027</v>
+        <v>0.2269938650306748</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.5153374233128835</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01360544217687075</v>
+        <v>0.01533742331288344</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7453416149068323</v>
+        <v>0.7527472527472527</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1614906832298137</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="L12">
-        <v>0.03726708074534162</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04968944099378882</v>
+        <v>0.04945054945054945</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7608695652173914</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1521739130434783</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03211009174311927</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1422018348623853</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="I15">
-        <v>0.0871559633027523</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="J15">
-        <v>0.3532110091743119</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K15">
-        <v>0.05045871559633028</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01834862385321101</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04128440366972477</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2752293577981652</v>
+        <v>0.2782608695652174</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005050505050505051</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2424242424242424</v>
+        <v>0.2570093457943925</v>
       </c>
       <c r="I16">
-        <v>0.1161616161616162</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="J16">
-        <v>0.3181818181818182</v>
+        <v>0.3224299065420561</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0303030303030303</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1313131313131313</v>
+        <v>0.1261682242990654</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0100250626566416</v>
+        <v>0.009324009324009324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2155388471177945</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I17">
-        <v>0.09523809523809523</v>
+        <v>0.09324009324009325</v>
       </c>
       <c r="J17">
-        <v>0.3809523809523809</v>
+        <v>0.37995337995338</v>
       </c>
       <c r="K17">
-        <v>0.1228070175438596</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02255639097744361</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="O17">
-        <v>0.05012531328320802</v>
+        <v>0.05361305361305362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1027568922305764</v>
+        <v>0.1048951048951049</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01388888888888889</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2175925925925926</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="I18">
-        <v>0.09259259259259259</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.3518518518518519</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="K18">
-        <v>0.1064814814814815</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009259259259259259</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06481481481481481</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1435185185185185</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01157407407407407</v>
+        <v>0.01080691642651297</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2376543209876543</v>
+        <v>0.2384726224783862</v>
       </c>
       <c r="I19">
-        <v>0.08950617283950617</v>
+        <v>0.0893371757925072</v>
       </c>
       <c r="J19">
-        <v>0.3371913580246914</v>
+        <v>0.3371757925072046</v>
       </c>
       <c r="K19">
-        <v>0.08719135802469136</v>
+        <v>0.09293948126801153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01929012345679012</v>
+        <v>0.01945244956772334</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07561728395061729</v>
+        <v>0.07060518731988473</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1419753086419753</v>
+        <v>0.1412103746397695</v>
       </c>
     </row>
   </sheetData>
